--- a/Practical_classes/2024_student_projects/student_projects_overview.xlsx
+++ b/Practical_classes/2024_student_projects/student_projects_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keil\Dropbox\GitHub\Spatial-Ecology-and-Macroecology\Practical_classes\2024_student_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD3B8FF-078B-45B2-970A-E25810FFA84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0F80F2-343C-46D2-877D-E16B09F6CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Čekanová</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>What are the suitable areas for the future</t>
+  </si>
+  <si>
+    <t>Zmije obecna</t>
+  </si>
+  <si>
+    <t>Nadmorska vyska, sklon, teplota</t>
+  </si>
+  <si>
+    <t>Wulf</t>
+  </si>
+  <si>
+    <t>Forest cover, nadmorska vyska, human footprint</t>
+  </si>
+  <si>
+    <t>Racoon</t>
+  </si>
+  <si>
+    <t>US vs Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human population, elevation, forest, </t>
+  </si>
+  <si>
+    <t>Black bear in the US</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees, forest, humans, elevation, </t>
   </si>
 </sst>
 </file>
@@ -551,7 +581,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +628,15 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -606,6 +645,15 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -694,6 +742,18 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -701,6 +761,18 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
